--- a/Data/Input/Emp_Data_Set.xlsx
+++ b/Data/Input/Emp_Data_Set.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaushik.ks\Desktop\Assignments\WorkBook Assighment 4.1\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shireen.M\Documents\UiPath\Shireen_Day_3\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F0308F-9229-4CC7-B10B-535606446E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A875692-71F1-44D3-B925-D3185EB1A709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="15375" windowHeight="7875" firstSheet="1" activeTab="4" xr2:uid="{DDD31288-1CFA-42CB-8584-BCE11610A53B}"/>
+    <workbookView xWindow="2895" yWindow="2895" windowWidth="18000" windowHeight="9360" activeTab="4" xr2:uid="{DDD31288-1CFA-42CB-8584-BCE11610A53B}"/>
   </bookViews>
   <sheets>
     <sheet name="Personal" sheetId="2" r:id="rId1"/>
@@ -1162,9 +1162,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1202,7 +1202,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1308,7 +1308,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1450,7 +1450,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1461,7 +1461,7 @@
   <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4901,9 +4901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037D69CD-7FF6-4459-8AFA-BF0ABFA29C8D}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9022,8 +9020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2114737B-62B0-42AB-B45C-1D93754E476D}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10645,30 +10643,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b4edf56a-5a91-48ff-919c-183254b0e511">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6a1fcef9-8c1c-4c75-859d-d52abd477b99" xsi:nil="true"/>
-    <Email xmlns="b4edf56a-5a91-48ff-919c-183254b0e511" xsi:nil="true"/>
-    <IDName xmlns="b4edf56a-5a91-48ff-919c-183254b0e511" xsi:nil="true"/>
-    <Discription xmlns="b4edf56a-5a91-48ff-919c-183254b0e511" xsi:nil="true"/>
-    <Identityname xmlns="b4edf56a-5a91-48ff-919c-183254b0e511" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D1F744C9B594704FB632A9D8996A6EB1" ma:contentTypeVersion="25" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4e1c7aed62f5b1bdacec2e9b40956c7a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b4edf56a-5a91-48ff-919c-183254b0e511" xmlns:ns3="6a1fcef9-8c1c-4c75-859d-d52abd477b99" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5a7bfa1f7866ee5f1ca9ba3bf69ef6ee" ns2:_="" ns3:_="">
     <xsd:import namespace="b4edf56a-5a91-48ff-919c-183254b0e511"/>
@@ -10955,10 +10929,45 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b4edf56a-5a91-48ff-919c-183254b0e511">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6a1fcef9-8c1c-4c75-859d-d52abd477b99" xsi:nil="true"/>
+    <Email xmlns="b4edf56a-5a91-48ff-919c-183254b0e511" xsi:nil="true"/>
+    <IDName xmlns="b4edf56a-5a91-48ff-919c-183254b0e511" xsi:nil="true"/>
+    <Discription xmlns="b4edf56a-5a91-48ff-919c-183254b0e511" xsi:nil="true"/>
+    <Identityname xmlns="b4edf56a-5a91-48ff-919c-183254b0e511" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88AD32AD-B7FD-4045-BFA8-E4D69F90EC09}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55674A5E-EFB8-43F1-922D-E297BC8C2981}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b4edf56a-5a91-48ff-919c-183254b0e511"/>
+    <ds:schemaRef ds:uri="6a1fcef9-8c1c-4c75-859d-d52abd477b99"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10968,10 +10977,16 @@
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b4edf56a-5a91-48ff-919c-183254b0e511"/>
+    <ds:schemaRef ds:uri="6a1fcef9-8c1c-4c75-859d-d52abd477b99"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55674A5E-EFB8-43F1-922D-E297BC8C2981}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88AD32AD-B7FD-4045-BFA8-E4D69F90EC09}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>